--- a/va_facility_data_2025-02-20/Wagner VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wagner%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Wagner VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wagner%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rce743115b10f49fba4704482bb5d495a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc7369857df5d490e9c26dcfe0ac80bf6"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7776d1dfe64c41fc97316db2cffa177b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf3fd584c57064941968daabfd549ef4f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R73a0d90502304989862efff6753ab6c1"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbf897d559c354a23938a61aff782e1ca"/>
   </x:sheets>
 </x:workbook>
 </file>
